--- a/nengo-notebooks/thesis-results/values.xlsx
+++ b/nengo-notebooks/thesis-results/values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\nengo-notebooks\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\nengo-notebooks\thesis-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D724C2-763B-4CE4-88A0-6223FDFAE664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB359D2-5813-4994-883B-9EA83276198C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24225" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>iterations</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>snn [timesteps=50, scaling=1, synapse=None]</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -409,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,29 +1130,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2">
-        <f>MAX(C2:C31)</f>
-        <v>0.64850002527236938</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" ref="D32:G32" si="0">MAX(D2:D31)</f>
-        <v>0.64858138377302144</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.64957690393230461</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5450472872075659</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54654056744649082</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
